--- a/BBT Tests/BarDataBase_BBT_01.xlsx
+++ b/BBT Tests/BarDataBase_BBT_01.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,12 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -516,8 +521,15 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <f>+((1-H3)^0.5)*$I$1</f>
+        <v>0.71151247353788527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -527,8 +539,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="0">+((1-H4)^0.5)*$I$1</f>
+        <v>0.67082039324993692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -538,8 +557,15 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.69146583429696662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -549,8 +575,15 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.73100957586067228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,7 +594,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,7 +605,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -583,7 +616,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,7 +627,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -605,7 +638,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -616,7 +649,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -627,7 +660,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -638,7 +671,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -649,7 +682,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
